--- a/admin/excel/Rating_parameters.xlsx
+++ b/admin/excel/Rating_parameters.xlsx
@@ -81,7 +81,7 @@
   </si>
   <si>
     <r>
-      <t>Учитываются результаты, сведения о которых внесены в единую государственную информационную систему учета научно-исследовательских, опытно-конструкторских и технологических работ гражданского назначения в соответствии с </t>
+      <t>Учитываются результаты, сведения о которых внесены в единую государственную информационную систему учета научно-исследовательских, опытно-конструкторских и технологических работ гражданского назначения в соответствии с</t>
     </r>
     <r>
       <rPr>
@@ -89,6 +89,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>постановлением</t>
     </r>
@@ -97,8 +98,9 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
-      <t> Правительства Российской Федерации от 12 апреля 2013 г. N 327 "О единой государственной информационной системе учета научно-исследовательских, опытно-конструкторских и технологических работ гражданского назначения" (Собрание законодательства Российской Федерации, 2013, N 16, ст. 1956; 2014, N 47, ст. 6555) и в единый реестр результатов научно-исследовательских, опытно-конструкторских и технологических работ военного, специального и двойного назначения в соответствии с </t>
+      <t>Правительства Российской Федерации от 12 апреля 2013 г. N 327 "О единой государственной информационной системе учета научно-исследовательских, опытно-конструкторских и технологических работ гражданского назначения" (Собрание законодательства Российской Федерации, 2013, N 16, ст. 1956; 2014, N 47, ст. 6555) и в единый реестр результатов научно-исследовательских, опытно-конструкторских и технологических работ военного, специального и двойного назначения в соответствии с</t>
     </r>
     <r>
       <rPr>
@@ -106,6 +108,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>постановлением</t>
     </r>
@@ -114,8 +117,9 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
-      <t> Правительства Российской Федерации и от 26 февраля 2002 г. N 131 "О государственном учете результатов научно-исследовательских, опытно-конструкторских и технологических работ военного, специального и двойного назначения" (Собрание законодательства Российской Федерации, 2002, N 9, ст. 935; 2011, N 15, ст. 2138; N 37, ст. 5242; 2014, N 21, ст. 2718) и иными нормативными правовыми актами. Показателями качества могут являться наличие государственной регистрации и правовой охраны в Российской Федерации, за пределами Российской Федерации, а также использование результатов, полученных работником и (или) при его участии.</t>
+      <t>Правительства Российской Федерации и от 26 февраля 2002 г. N 131 "О государственном учете результатов научно-исследовательских, опытно-конструкторских и технологических работ военного, специального и двойного назначения" (Собрание законодательства Российской Федерации, 2002, N 9, ст. 935; 2011, N 15, ст. 2138; N 37, ст. 5242; 2014, N 21, ст. 2718) и иными нормативными правовыми актами. Показателями качества могут являться наличие государственной регистрации и правовой охраны в Российской Федерации, за пределами Российской Федерации, а также использование результатов, полученных работником и (или) при его участии.</t>
     </r>
   </si>
   <si>
@@ -203,6 +207,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -223,12 +228,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,7 +388,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
